--- a/biology/Botanique/Liste_des_espaces_verts_de_Montluçon/Liste_des_espaces_verts_de_Montluçon.xlsx
+++ b/biology/Botanique/Liste_des_espaces_verts_de_Montluçon/Liste_des_espaces_verts_de_Montluçon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_espaces_verts_de_Montlu%C3%A7on</t>
+          <t>Liste_des_espaces_verts_de_Montluçon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article liste les espaces verts à Montluçon, en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_espaces_verts_de_Montlu%C3%A7on</t>
+          <t>Liste_des_espaces_verts_de_Montluçon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,124 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Disparus
-Il existait un square situé face au Cher qui a été détruit au cours des années 1960 pour construire à sa place l'ancienne gare routière, un autre square était situé à l'extrémité de l'esplanade de l'avenue Marx-Dormoy côté boulevard de Courtais, ce dernier a été partiellement rétabli après destruction de la station service qui occupait son emplacement.
-Bois
-Bois de la Brosse
-Parcs
-Parc des Ilets
+          <t>Disparus</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existait un square situé face au Cher qui a été détruit au cours des années 1960 pour construire à sa place l'ancienne gare routière, un autre square était situé à l'extrémité de l'esplanade de l'avenue Marx-Dormoy côté boulevard de Courtais, ce dernier a été partiellement rétabli après destruction de la station service qui occupait son emplacement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_espaces_verts_de_Montluçon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_espaces_verts_de_Montlu%C3%A7on</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espaces verts</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bois</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bois de la Brosse</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espaces_verts_de_Montluçon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_espaces_verts_de_Montlu%C3%A7on</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espaces verts</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Parcs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Parc des Ilets
 Parc Saint-Jean sur lequel est implanté l'hippodrome Saint-Jean
-Parc de la Louvière
-Jardins
-Esplanade de l'avenue Marx Dormoy
+Parc de la Louvière</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espaces_verts_de_Montluçon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_espaces_verts_de_Montlu%C3%A7on</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espaces verts</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Jardins</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Esplanade de l'avenue Marx Dormoy
 Jardins Bréda
 Esplanade des Marais
 Jardins Wilson
